--- a/CongViecBCM/Job Description TTCDS/Dev_Evaluation/2025_PO_MinhNV.xlsx
+++ b/CongViecBCM/Job Description TTCDS/Dev_Evaluation/2025_PO_MinhNV.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LANNGO_PROJECTS\GPKD\HoSoDoanhNghiep\CongViecBCM\Job Description TTCDS\Dev_Evaluation\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12000"/>
   </bookViews>
   <sheets>
     <sheet name="PO Evaluation" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
@@ -19,15 +24,6 @@
     <t>PHIẾU ĐÁNH GIÁ PRODUCT OWNER (PO) - SINGLE SHEET</t>
   </si>
   <si>
-    <t>Họ tên:</t>
-  </si>
-  <si>
-    <t>Level hiện tại (PO1–PO4):</t>
-  </si>
-  <si>
-    <t>Kỳ đánh giá:</t>
-  </si>
-  <si>
     <t>STT</t>
   </si>
   <si>
@@ -46,60 +42,6 @@
     <t>Ghi chú</t>
   </si>
   <si>
-    <t>Hiểu sản phẩm &amp; tầm nhìn (Product vision &amp; strategy alignment)</t>
-  </si>
-  <si>
-    <t>Hiểu khách hàng &amp; nhu cầu (User / Customer understanding, research)</t>
-  </si>
-  <si>
-    <t>Quản lý Product Backlog &amp; ưu tiên (Backlog management &amp; prioritization)</t>
-  </si>
-  <si>
-    <t>Viết &amp; quản lý yêu cầu (User stories, Acceptance criteria)</t>
-  </si>
-  <si>
-    <t>Lập roadmap &amp; kế hoạch phát hành (Roadmap &amp; Release planning)</t>
-  </si>
-  <si>
-    <t>Ra quyết định dựa trên dữ liệu (Product analytics &amp; metrics)</t>
-  </si>
-  <si>
-    <t>Quản lý phạm vi &amp; giá trị (Scope, value, trade-off)</t>
-  </si>
-  <si>
-    <t>Hiểu nghiệp vụ &amp; quy trình kinh doanh (Domain &amp; Business process knowledge)</t>
-  </si>
-  <si>
-    <t>Giao tiếp &amp; quản lý Stakeholder (internal / external)</t>
-  </si>
-  <si>
-    <t>Phối hợp với Dev / Tester / UX trong Agile/Scrum</t>
-  </si>
-  <si>
-    <t>Facilitation trong các buổi họp (refinement, planning, review, retro)</t>
-  </si>
-  <si>
-    <t>Kỹ năng trình bày &amp; thuyết phục (Presentation &amp; Storytelling)</t>
-  </si>
-  <si>
-    <t>Tài liệu sản phẩm (Spec, guide, release notes, FAQ)</t>
-  </si>
-  <si>
-    <t>Dẫn dắt Product Discovery &amp; Experiment (MVP, A/B testing, thử nghiệm)</t>
-  </si>
-  <si>
-    <t>Quản lý rủi ro &amp; issue sản phẩm (Risk &amp; Issue management)</t>
-  </si>
-  <si>
-    <t>Quản lý nhiều sản phẩm / stream (Program-level Product Ownership)</t>
-  </si>
-  <si>
-    <t>Định hướng product, alignment với chiến lược tổ chức</t>
-  </si>
-  <si>
-    <t>Huấn luyện &amp; dẫn dắt PO/BA khác (Coaching &amp; Leadership)</t>
-  </si>
-  <si>
     <t>Tổng trọng số:</t>
   </si>
   <si>
@@ -149,13 +91,76 @@
   </si>
   <si>
     <t>B5: Kết hợp kết quả này với đánh giá định tính (thái độ, vai trò dự án, mức độ đáp ứng Stakeholder) trước khi ra quyết định chính thức.</t>
+  </si>
+  <si>
+    <t>Họ tên: Nguyễn Văn Minh</t>
+  </si>
+  <si>
+    <t>Level hiện tại (PO1–PO4):2</t>
+  </si>
+  <si>
+    <t>Kỳ đánh giá:2025</t>
+  </si>
+  <si>
+    <t>Hiểu sản phẩm và tầm nhìn</t>
+  </si>
+  <si>
+    <t>Hiểu khách hàng và nhu cầu</t>
+  </si>
+  <si>
+    <t>Quản lý Product Backlog và ưu tiên</t>
+  </si>
+  <si>
+    <t>Viết và quản lý yêu cầu (User Story, tiêu chí chấp nhận)</t>
+  </si>
+  <si>
+    <t>Lập roadmap và kế hoạch phát hành sản phẩm</t>
+  </si>
+  <si>
+    <t>Ra quyết định dựa trên dữ liệu (chỉ số và phân tích sản phẩm)</t>
+  </si>
+  <si>
+    <t>Quản lý phạm vi và giá trị (scope, ưu tiên giá trị, trade-off)</t>
+  </si>
+  <si>
+    <t>Hiểu nghiệp vụ và quy trình kinh doanh</t>
+  </si>
+  <si>
+    <t>Giao tiếp và quản lý các bên liên quan (Stakeholder nội bộ/ngoại bộ)</t>
+  </si>
+  <si>
+    <t>Phối hợp với Dev, Tester, UX trong mô hình Agile/Scrum</t>
+  </si>
+  <si>
+    <t>Dẫn dắt các buổi họp sản phẩm (refinement, planning, review, retro)</t>
+  </si>
+  <si>
+    <t>Kỹ năng trình bày và thuyết phục</t>
+  </si>
+  <si>
+    <t>Xây dựng và quản lý tài liệu sản phẩm (spec, hướng dẫn, release notes, FAQ)</t>
+  </si>
+  <si>
+    <t>Dẫn dắt thử nghiệm sản phẩm(MVP, A/B testing, kiểm thử giả thuyết)</t>
+  </si>
+  <si>
+    <t>Quản lý rủi ro và vấn đề của sản phẩm</t>
+  </si>
+  <si>
+    <t>Quản lý nhiều sản phẩm hoặc nhiều dòng sản phẩm</t>
+  </si>
+  <si>
+    <t>Định hướng sản phẩm và bảo đảm phù hợp với chiến lược tổ chức</t>
+  </si>
+  <si>
+    <t>Huấn luyện và dẫn dắt các PO/BA khác</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -187,8 +192,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -198,6 +212,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFD9E1F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -229,7 +249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -237,9 +257,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -247,6 +274,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -293,7 +328,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -325,9 +360,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -359,6 +395,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -534,12 +571,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD43"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.7109375" customWidth="1"/>
     <col min="2" max="2" width="65.7109375" customWidth="1"/>
@@ -549,448 +588,560 @@
     <col min="6" max="6" width="30.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="B5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="2" t="s">
+      <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="E5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="F5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="C6" s="3">
         <v>7</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="3">
+        <v>2</v>
+      </c>
       <c r="E6" s="3">
-        <f>IF(D6="","",D6/3*C6)</f>
-        <v>0</v>
+        <f>ROUND(IF(D6="","",D6/3*C6),1)</f>
+        <v>4.7</v>
       </c>
       <c r="F6" s="3"/>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>2</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C7" s="3">
         <v>7</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="3">
+        <v>2</v>
+      </c>
       <c r="E7" s="3">
-        <f>IF(D7="","",D7/3*C7)</f>
-        <v>0</v>
+        <f t="shared" ref="E7:E23" si="0">ROUND(IF(D7="","",D7/3*C7),1)</f>
+        <v>4.7</v>
       </c>
       <c r="F7" s="3"/>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>3</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
       <c r="C8" s="3">
         <v>7</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3">
+        <v>3</v>
+      </c>
       <c r="E8" s="3">
-        <f>IF(D8="","",D8/3*C8)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="F8" s="3"/>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>4</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="C9" s="3">
         <v>7</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="3">
+        <v>3</v>
+      </c>
       <c r="E9" s="3">
-        <f>IF(D9="","",D9/3*C9)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="F9" s="3"/>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>5</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="C10" s="3">
         <v>7</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="3">
+        <v>2</v>
+      </c>
       <c r="E10" s="3">
-        <f>IF(D10="","",D10/3*C10)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4.7</v>
       </c>
       <c r="F10" s="3"/>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>6</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="C11" s="3">
         <v>7</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="3">
+        <v>2</v>
+      </c>
       <c r="E11" s="3">
-        <f>IF(D11="","",D11/3*C11)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4.7</v>
       </c>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>7</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="C12" s="3">
         <v>7</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="3">
+        <v>2</v>
+      </c>
       <c r="E12" s="3">
-        <f>IF(D12="","",D12/3*C12)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4.7</v>
       </c>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>8</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="C13" s="3">
         <v>6</v>
       </c>
-      <c r="D13" s="3"/>
+      <c r="D13" s="3">
+        <v>2</v>
+      </c>
       <c r="E13" s="3">
-        <f>IF(D13="","",D13/3*C13)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>9</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="C14" s="3">
         <v>5</v>
       </c>
-      <c r="D14" s="3"/>
+      <c r="D14" s="3">
+        <v>2</v>
+      </c>
       <c r="E14" s="3">
-        <f>IF(D14="","",D14/3*C14)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.3</v>
       </c>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>10</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C15" s="3">
         <v>5</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="3">
+        <v>2</v>
+      </c>
       <c r="E15" s="3">
-        <f>IF(D15="","",D15/3*C15)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.3</v>
       </c>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>11</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C16" s="3">
         <v>5</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3">
+        <v>2</v>
+      </c>
       <c r="E16" s="3">
-        <f>IF(D16="","",D16/3*C16)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.3</v>
       </c>
       <c r="F16" s="3"/>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>12</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="C17" s="3">
         <v>5</v>
       </c>
-      <c r="D17" s="3"/>
+      <c r="D17" s="3">
+        <v>2</v>
+      </c>
       <c r="E17" s="3">
-        <f>IF(D17="","",D17/3*C17)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.3</v>
       </c>
       <c r="F17" s="3"/>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>13</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="C18" s="3">
         <v>5</v>
       </c>
-      <c r="D18" s="3"/>
+      <c r="D18" s="3">
+        <v>2</v>
+      </c>
       <c r="E18" s="3">
-        <f>IF(D18="","",D18/3*C18)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>3.3</v>
       </c>
       <c r="F18" s="3"/>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>14</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="C19" s="3">
         <v>4</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="3">
+        <v>2</v>
+      </c>
       <c r="E19" s="3">
-        <f>IF(D19="","",D19/3*C19)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.7</v>
       </c>
       <c r="F19" s="3"/>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>15</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="C20" s="3">
         <v>4</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="3">
+        <v>2</v>
+      </c>
       <c r="E20" s="3">
-        <f>IF(D20="","",D20/3*C20)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.7</v>
       </c>
       <c r="F20" s="3"/>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>16</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="C21" s="3">
         <v>4</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="3">
+        <v>2</v>
+      </c>
       <c r="E21" s="3">
-        <f>IF(D21="","",D21/3*C21)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>2.7</v>
       </c>
       <c r="F21" s="3"/>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>17</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="C22" s="3">
         <v>4</v>
       </c>
-      <c r="D22" s="3"/>
+      <c r="D22" s="3">
+        <v>1</v>
+      </c>
       <c r="E22" s="3">
-        <f>IF(D22="","",D22/3*C22)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.3</v>
       </c>
       <c r="F22" s="3"/>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>18</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>27</v>
+        <v>44</v>
       </c>
       <c r="C23" s="3">
         <v>4</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="3">
+        <v>1</v>
+      </c>
       <c r="E23" s="3">
-        <f>IF(D23="","",D23/3*C23)</f>
-        <v>0</v>
+        <f t="shared" si="0"/>
+        <v>1.3</v>
       </c>
       <c r="F23" s="3"/>
     </row>
-    <row r="25" spans="1:6">
-      <c r="B25" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C25" s="3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B25" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="5">
         <f>SUM(C6:C23)</f>
-        <v>0</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="E25" s="3">
+        <v>100</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="5">
         <f>SUM(E6:E23)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="D26" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" s="3">
+        <v>68.699999999999989</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C26" s="5"/>
+      <c r="D26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" s="5">
         <f>IF(C25=0,"",E25/C25*100)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="D27" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="3">
+        <v>68.699999999999989</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C27" s="5"/>
+      <c r="D27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E27" s="5" t="str">
         <f>IF(E26="","",IF(E26&gt;=80,"Đề xuất PO4",IF(E26&gt;=70,"Đề xuất PO3",IF(E26&gt;=60,"Đề xuất PO2","Đề xuất PO1"))))</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="6" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="6" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="6" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="6" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="6" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
-      <c r="A38" s="5" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
-      <c r="A39" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
-      <c r="A40" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
-      <c r="A42" s="6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="6" t="s">
-        <v>44</v>
-      </c>
+        <v>Đề xuất PO2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
+    </row>
+    <row r="30" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="11"/>
+      <c r="E30" s="11"/>
+      <c r="F30" s="11"/>
+    </row>
+    <row r="31" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="10"/>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+    </row>
+    <row r="32" spans="1:6" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="E32" s="10"/>
+      <c r="F32" s="10"/>
+    </row>
+    <row r="33" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
+      <c r="F33" s="10"/>
+    </row>
+    <row r="35" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="10"/>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10"/>
+      <c r="E35" s="10"/>
+      <c r="F35" s="10"/>
+    </row>
+    <row r="36" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B36" s="10"/>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10"/>
+      <c r="E36" s="10"/>
+      <c r="F36" s="10"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+    </row>
+    <row r="40" spans="1:6" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+    </row>
+    <row r="41" spans="1:6" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+    </row>
+    <row r="42" spans="1:6" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+    </row>
+    <row r="43" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
     </row>
   </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A39:F39"/>
+    <mergeCell ref="A40:F40"/>
+    <mergeCell ref="A41:F41"/>
+    <mergeCell ref="A42:F42"/>
+    <mergeCell ref="A43:F43"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A35:F35"/>
+    <mergeCell ref="A36:F36"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/CongViecBCM/Job Description TTCDS/Dev_Evaluation/2025_PO_MinhNV.xlsx
+++ b/CongViecBCM/Job Description TTCDS/Dev_Evaluation/2025_PO_MinhNV.xlsx
@@ -575,7 +575,7 @@
   <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD43"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,8 +998,8 @@
         <v>10</v>
       </c>
       <c r="E27" s="5" t="str">
-        <f>IF(E26="","",IF(E26&gt;=80,"Đề xuất PO4",IF(E26&gt;=70,"Đề xuất PO3",IF(E26&gt;=60,"Đề xuất PO2","Đề xuất PO1"))))</f>
-        <v>Đề xuất PO2</v>
+        <f>IF(E26="","",IF(E26&gt;=80,"Product Owner 4",IF(E26&gt;=70,"Product Owner 3",IF(E26&gt;=60,"Product Owner 2","Product Owner 1"))))</f>
+        <v>Product Owner 2</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -1129,17 +1129,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
+    <mergeCell ref="A36:F36"/>
+    <mergeCell ref="A30:F30"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A32:F32"/>
+    <mergeCell ref="A33:F33"/>
+    <mergeCell ref="A35:F35"/>
     <mergeCell ref="A39:F39"/>
     <mergeCell ref="A40:F40"/>
     <mergeCell ref="A41:F41"/>
     <mergeCell ref="A42:F42"/>
     <mergeCell ref="A43:F43"/>
-    <mergeCell ref="A30:F30"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A32:F32"/>
-    <mergeCell ref="A33:F33"/>
-    <mergeCell ref="A35:F35"/>
-    <mergeCell ref="A36:F36"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
